--- a/data/pca/factorExposure/factorExposure_2015-04-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02260301354527778</v>
+        <v>0.0124002172445856</v>
       </c>
       <c r="C2">
-        <v>0.02718536653222128</v>
+        <v>-0.05438921156738058</v>
       </c>
       <c r="D2">
-        <v>0.1254396257752524</v>
+        <v>-0.1257421773725247</v>
       </c>
       <c r="E2">
-        <v>0.005620856244433756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02700843820805267</v>
+      </c>
+      <c r="F2">
+        <v>-0.01464400945383936</v>
+      </c>
+      <c r="G2">
+        <v>-0.06529747818044872</v>
+      </c>
+      <c r="H2">
+        <v>0.1179597575664398</v>
+      </c>
+      <c r="I2">
+        <v>0.079400276499675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04301600150608093</v>
+        <v>0.0171729435137425</v>
       </c>
       <c r="C4">
-        <v>0.06849065222964351</v>
+        <v>-0.1053031153362421</v>
       </c>
       <c r="D4">
-        <v>0.1077983097834666</v>
+        <v>-0.1255848776572275</v>
       </c>
       <c r="E4">
-        <v>0.09139115710193703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01828596555665527</v>
+      </c>
+      <c r="F4">
+        <v>-0.09520545432816013</v>
+      </c>
+      <c r="G4">
+        <v>0.00989681903044873</v>
+      </c>
+      <c r="H4">
+        <v>0.05962654193127635</v>
+      </c>
+      <c r="I4">
+        <v>-0.08345393437432537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02563523574582063</v>
+        <v>0.03056098237832833</v>
       </c>
       <c r="C6">
-        <v>0.01390588310713093</v>
+        <v>-0.03794875878292972</v>
       </c>
       <c r="D6">
-        <v>0.1270713365440678</v>
+        <v>-0.1183496704650742</v>
       </c>
       <c r="E6">
-        <v>0.05393879719391782</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06647036050145179</v>
+      </c>
+      <c r="F6">
+        <v>-0.04252522610138296</v>
+      </c>
+      <c r="G6">
+        <v>0.03133036908844308</v>
+      </c>
+      <c r="H6">
+        <v>0.02577832185379492</v>
+      </c>
+      <c r="I6">
+        <v>-0.002432502705467068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001239551729471607</v>
+        <v>0.006605828791636423</v>
       </c>
       <c r="C7">
-        <v>0.02465152219279413</v>
+        <v>-0.03920511252336241</v>
       </c>
       <c r="D7">
-        <v>0.1079639888614965</v>
+        <v>-0.0950402266526722</v>
       </c>
       <c r="E7">
-        <v>0.01660202609324815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05047418538656124</v>
+      </c>
+      <c r="F7">
+        <v>-0.003328524022352533</v>
+      </c>
+      <c r="G7">
+        <v>0.06316436317100745</v>
+      </c>
+      <c r="H7">
+        <v>0.06319841137497584</v>
+      </c>
+      <c r="I7">
+        <v>-0.0475071579830784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0007584329296929788</v>
+        <v>-0.00807376360980762</v>
       </c>
       <c r="C8">
-        <v>0.02741315092429902</v>
+        <v>-0.03682719192095454</v>
       </c>
       <c r="D8">
-        <v>0.08518159110557043</v>
+        <v>-0.0715619260035831</v>
       </c>
       <c r="E8">
-        <v>0.03566390589413192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03813884875381444</v>
+      </c>
+      <c r="F8">
+        <v>-0.04252872413841714</v>
+      </c>
+      <c r="G8">
+        <v>-0.04355414615770738</v>
+      </c>
+      <c r="H8">
+        <v>0.04763719139740636</v>
+      </c>
+      <c r="I8">
+        <v>-0.02363493920688689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03249323035878785</v>
+        <v>0.01243340351028936</v>
       </c>
       <c r="C9">
-        <v>0.05994180343534297</v>
+        <v>-0.0870769423540504</v>
       </c>
       <c r="D9">
-        <v>0.1104295199709708</v>
+        <v>-0.1095408435644208</v>
       </c>
       <c r="E9">
-        <v>0.07074129376901797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01674151692541269</v>
+      </c>
+      <c r="F9">
+        <v>-0.06394918679653952</v>
+      </c>
+      <c r="G9">
+        <v>0.03767891688259391</v>
+      </c>
+      <c r="H9">
+        <v>0.05479011260445764</v>
+      </c>
+      <c r="I9">
+        <v>-0.04353433961418064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1758019060404833</v>
+        <v>0.2389044637557491</v>
       </c>
       <c r="C10">
-        <v>-0.1704600903408172</v>
+        <v>0.09074718227865251</v>
       </c>
       <c r="D10">
-        <v>-0.008061502587427846</v>
+        <v>0.006366444416191253</v>
       </c>
       <c r="E10">
-        <v>0.04933319379478707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01404149113014746</v>
+      </c>
+      <c r="F10">
+        <v>-0.04786662417798297</v>
+      </c>
+      <c r="G10">
+        <v>-0.01461884866391206</v>
+      </c>
+      <c r="H10">
+        <v>-0.009327744392866964</v>
+      </c>
+      <c r="I10">
+        <v>0.01259604369102593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01804793741019288</v>
+        <v>0.01027945414923848</v>
       </c>
       <c r="C11">
-        <v>0.0419013358920864</v>
+        <v>-0.05872495805551821</v>
       </c>
       <c r="D11">
-        <v>0.04027919491209384</v>
+        <v>-0.03942019925411432</v>
       </c>
       <c r="E11">
-        <v>-0.01600249934565098</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02229014733445847</v>
+      </c>
+      <c r="F11">
+        <v>0.01525728422706765</v>
+      </c>
+      <c r="G11">
+        <v>0.03487173721334929</v>
+      </c>
+      <c r="H11">
+        <v>0.03373960215385056</v>
+      </c>
+      <c r="I11">
+        <v>-0.03603802006856699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01713807860379107</v>
+        <v>0.009833310643207513</v>
       </c>
       <c r="C12">
-        <v>0.04284735052278675</v>
+        <v>-0.05135313070795545</v>
       </c>
       <c r="D12">
-        <v>0.05362022843241195</v>
+        <v>-0.04504518120191719</v>
       </c>
       <c r="E12">
-        <v>-0.007428838953920595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01642113020865377</v>
+      </c>
+      <c r="F12">
+        <v>0.01815910466881838</v>
+      </c>
+      <c r="G12">
+        <v>0.05735141214943149</v>
+      </c>
+      <c r="H12">
+        <v>0.04265932884204284</v>
+      </c>
+      <c r="I12">
+        <v>-0.009096264972329696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.00534538865533572</v>
+        <v>0.0003286900565556625</v>
       </c>
       <c r="C13">
-        <v>0.02501281435929037</v>
+        <v>-0.05564003528468212</v>
       </c>
       <c r="D13">
-        <v>0.1264049847363228</v>
+        <v>-0.157341002796953</v>
       </c>
       <c r="E13">
-        <v>0.04287086602065013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.0335196498168874</v>
+      </c>
+      <c r="F13">
+        <v>-0.02952315096307071</v>
+      </c>
+      <c r="G13">
+        <v>0.03005934193693973</v>
+      </c>
+      <c r="H13">
+        <v>0.09982703725421775</v>
+      </c>
+      <c r="I13">
+        <v>0.06096380103774497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004896858737968028</v>
+        <v>0.002204503673537426</v>
       </c>
       <c r="C14">
-        <v>0.01921565720789768</v>
+        <v>-0.03313503198772031</v>
       </c>
       <c r="D14">
-        <v>0.08412220736212159</v>
+        <v>-0.09389614883807613</v>
       </c>
       <c r="E14">
-        <v>0.01586106279556665</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05608598853198894</v>
+      </c>
+      <c r="F14">
+        <v>-0.02094653341322467</v>
+      </c>
+      <c r="G14">
+        <v>0.06801387035732856</v>
+      </c>
+      <c r="H14">
+        <v>0.1353710037892694</v>
+      </c>
+      <c r="I14">
+        <v>-0.005980142370267874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.003296183718778661</v>
+        <v>-0.005413159174517931</v>
       </c>
       <c r="C15">
-        <v>0.01065833266520186</v>
+        <v>-0.02766011367835748</v>
       </c>
       <c r="D15">
-        <v>0.03571954742023917</v>
+        <v>-0.05766496192985991</v>
       </c>
       <c r="E15">
-        <v>-0.00372846112403314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01886261691573232</v>
+      </c>
+      <c r="F15">
+        <v>-0.003190544901568861</v>
+      </c>
+      <c r="G15">
+        <v>0.01036654198471652</v>
+      </c>
+      <c r="H15">
+        <v>0.05917029160452587</v>
+      </c>
+      <c r="I15">
+        <v>-0.02303861556729077</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01716389007850814</v>
+        <v>0.009550898260182683</v>
       </c>
       <c r="C16">
-        <v>0.03832397931916487</v>
+        <v>-0.0510492968731954</v>
       </c>
       <c r="D16">
-        <v>0.0465754536989452</v>
+        <v>-0.04061050848902573</v>
       </c>
       <c r="E16">
-        <v>-0.006074443822799427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02348833783994223</v>
+      </c>
+      <c r="F16">
+        <v>0.009863987978279882</v>
+      </c>
+      <c r="G16">
+        <v>0.04205062761705417</v>
+      </c>
+      <c r="H16">
+        <v>0.02722899071093221</v>
+      </c>
+      <c r="I16">
+        <v>-0.02397578683280231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.001255221377894471</v>
+        <v>-0.003157532699064298</v>
       </c>
       <c r="C19">
-        <v>0.02032371419210164</v>
+        <v>-0.01593518528132679</v>
       </c>
       <c r="D19">
-        <v>0.07407465872752445</v>
+        <v>-0.05085521801175157</v>
       </c>
       <c r="E19">
-        <v>0.02648581278322529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.007569010465429984</v>
+      </c>
+      <c r="F19">
+        <v>-0.0119390153673143</v>
+      </c>
+      <c r="G19">
+        <v>0.009223382957332079</v>
+      </c>
+      <c r="H19">
+        <v>0.04646759878954982</v>
+      </c>
+      <c r="I19">
+        <v>0.01028267459137229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002102488745838629</v>
+        <v>0.004176462326764392</v>
       </c>
       <c r="C20">
-        <v>0.02500759576760028</v>
+        <v>-0.04161024214494034</v>
       </c>
       <c r="D20">
-        <v>0.0734210058865508</v>
+        <v>-0.08351110338548043</v>
       </c>
       <c r="E20">
-        <v>0.03550793583987361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02577687589985151</v>
+      </c>
+      <c r="F20">
+        <v>-0.0231731399404662</v>
+      </c>
+      <c r="G20">
+        <v>0.04241045479918783</v>
+      </c>
+      <c r="H20">
+        <v>0.04368427516521248</v>
+      </c>
+      <c r="I20">
+        <v>-0.04743344688943769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.005470990511611943</v>
+        <v>0.003589162292192084</v>
       </c>
       <c r="C21">
-        <v>0.03016058654203036</v>
+        <v>-0.04811645882965598</v>
       </c>
       <c r="D21">
-        <v>0.1344085350613351</v>
+        <v>-0.1236111745625474</v>
       </c>
       <c r="E21">
-        <v>0.08161504668612703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03340688374436464</v>
+      </c>
+      <c r="F21">
+        <v>-0.08285589261835914</v>
+      </c>
+      <c r="G21">
+        <v>0.06909515863895024</v>
+      </c>
+      <c r="H21">
+        <v>0.1848678948480658</v>
+      </c>
+      <c r="I21">
+        <v>0.05659779340034759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.001217790924047881</v>
+        <v>-0.01344498394050837</v>
       </c>
       <c r="C22">
-        <v>0.06974870577749731</v>
+        <v>-0.08991070044547934</v>
       </c>
       <c r="D22">
-        <v>0.3017292349553871</v>
+        <v>-0.2706539542398514</v>
       </c>
       <c r="E22">
-        <v>0.04255175080435352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.06828815667377378</v>
+      </c>
+      <c r="F22">
+        <v>-0.01538778451744634</v>
+      </c>
+      <c r="G22">
+        <v>-0.5274845873069496</v>
+      </c>
+      <c r="H22">
+        <v>-0.1715180306517485</v>
+      </c>
+      <c r="I22">
+        <v>0.02923606371305682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.00163621019423779</v>
+        <v>-0.01028816169979835</v>
       </c>
       <c r="C23">
-        <v>0.07002620463411323</v>
+        <v>-0.0916621076772942</v>
       </c>
       <c r="D23">
-        <v>0.3007756779267596</v>
+        <v>-0.2731556022557899</v>
       </c>
       <c r="E23">
-        <v>0.04290419706138415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.06330456394606691</v>
+      </c>
+      <c r="F23">
+        <v>-0.01855494292655629</v>
+      </c>
+      <c r="G23">
+        <v>-0.5108994014045309</v>
+      </c>
+      <c r="H23">
+        <v>-0.1626073529166097</v>
+      </c>
+      <c r="I23">
+        <v>0.0296740795719104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02325144012703562</v>
+        <v>0.01021053830179218</v>
       </c>
       <c r="C24">
-        <v>0.05792416085486168</v>
+        <v>-0.06767471874967385</v>
       </c>
       <c r="D24">
-        <v>0.05485699180076956</v>
+        <v>-0.04431804729775233</v>
       </c>
       <c r="E24">
-        <v>-0.005726309186679815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02992058466365286</v>
+      </c>
+      <c r="F24">
+        <v>0.008892266547617532</v>
+      </c>
+      <c r="G24">
+        <v>0.04404302630406284</v>
+      </c>
+      <c r="H24">
+        <v>0.05598651809933248</v>
+      </c>
+      <c r="I24">
+        <v>-0.03184191529259642</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02387045854160532</v>
+        <v>0.01417166949865435</v>
       </c>
       <c r="C25">
-        <v>0.05000836688712871</v>
+        <v>-0.06263137708782868</v>
       </c>
       <c r="D25">
-        <v>0.05373933897625551</v>
+        <v>-0.04765786225950457</v>
       </c>
       <c r="E25">
-        <v>0.0007924473751139898</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01573418330504587</v>
+      </c>
+      <c r="F25">
+        <v>0.007586262331038927</v>
+      </c>
+      <c r="G25">
+        <v>0.03419089890842336</v>
+      </c>
+      <c r="H25">
+        <v>0.02538522538408334</v>
+      </c>
+      <c r="I25">
+        <v>-0.0222547610593972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008977287143249151</v>
+        <v>0.016974664895934</v>
       </c>
       <c r="C26">
-        <v>0.01497801766123837</v>
+        <v>-0.02837810868465771</v>
       </c>
       <c r="D26">
-        <v>0.06930361132762704</v>
+        <v>-0.06346453034344822</v>
       </c>
       <c r="E26">
-        <v>0.02713828210507322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04024357419608241</v>
+      </c>
+      <c r="F26">
+        <v>-0.04237949176045892</v>
+      </c>
+      <c r="G26">
+        <v>0.04250845225192335</v>
+      </c>
+      <c r="H26">
+        <v>0.09593558033249512</v>
+      </c>
+      <c r="I26">
+        <v>-0.01476482579348072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2608142009717095</v>
+        <v>0.3187723594343215</v>
       </c>
       <c r="C28">
-        <v>-0.1915438995142433</v>
+        <v>0.08707520188928049</v>
       </c>
       <c r="D28">
-        <v>0.006382205103990752</v>
+        <v>0.02343531762092763</v>
       </c>
       <c r="E28">
-        <v>0.0434466782832405</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04760545593003318</v>
+      </c>
+      <c r="F28">
+        <v>-0.0444814761862646</v>
+      </c>
+      <c r="G28">
+        <v>-0.05631721462814002</v>
+      </c>
+      <c r="H28">
+        <v>0.0222031871982758</v>
+      </c>
+      <c r="I28">
+        <v>-0.001844986488884353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0002591991384653229</v>
+        <v>0.001179852837097496</v>
       </c>
       <c r="C29">
-        <v>0.0228599596614777</v>
+        <v>-0.0389517347065399</v>
       </c>
       <c r="D29">
-        <v>0.08142230125327045</v>
+        <v>-0.09674467682532614</v>
       </c>
       <c r="E29">
-        <v>0.02629621265570754</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.06340900416352391</v>
+      </c>
+      <c r="F29">
+        <v>-0.02361659934333101</v>
+      </c>
+      <c r="G29">
+        <v>0.0927253888837269</v>
+      </c>
+      <c r="H29">
+        <v>0.1493814761609745</v>
+      </c>
+      <c r="I29">
+        <v>-0.006280485241172846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02447036214293488</v>
+        <v>0.01265170000243755</v>
       </c>
       <c r="C30">
-        <v>0.06747712331407077</v>
+        <v>-0.09296270682547648</v>
       </c>
       <c r="D30">
-        <v>0.1501828691854043</v>
+        <v>-0.1316475975967495</v>
       </c>
       <c r="E30">
-        <v>0.03056533319620354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05782297862195473</v>
+      </c>
+      <c r="F30">
+        <v>-0.01640931719728489</v>
+      </c>
+      <c r="G30">
+        <v>0.007950043343461857</v>
+      </c>
+      <c r="H30">
+        <v>0.04501098522807626</v>
+      </c>
+      <c r="I30">
+        <v>-0.05736803713366224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0364670338837191</v>
+        <v>0.008438997582425646</v>
       </c>
       <c r="C31">
-        <v>0.08462047767874448</v>
+        <v>-0.09535463605951185</v>
       </c>
       <c r="D31">
-        <v>0.05837621457012681</v>
+        <v>-0.03833786353529612</v>
       </c>
       <c r="E31">
-        <v>0.01256408146001963</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02070405292139512</v>
+      </c>
+      <c r="F31">
+        <v>-0.01247755056946388</v>
+      </c>
+      <c r="G31">
+        <v>0.01864914233510235</v>
+      </c>
+      <c r="H31">
+        <v>0.03966952407338463</v>
+      </c>
+      <c r="I31">
+        <v>-0.01535497804110295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01504648510664137</v>
+        <v>0.01100284085864007</v>
       </c>
       <c r="C32">
-        <v>0.03739545346087349</v>
+        <v>-0.05128469432328399</v>
       </c>
       <c r="D32">
-        <v>0.07675677720135347</v>
+        <v>-0.08504292509582334</v>
       </c>
       <c r="E32">
-        <v>0.04859046745671035</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.004223080948349771</v>
+      </c>
+      <c r="F32">
+        <v>-0.04652242396241345</v>
+      </c>
+      <c r="G32">
+        <v>0.02202880546074434</v>
+      </c>
+      <c r="H32">
+        <v>0.06167802951007444</v>
+      </c>
+      <c r="I32">
+        <v>0.0122027277651772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.005447734522116247</v>
+        <v>0.004939818423221989</v>
       </c>
       <c r="C33">
-        <v>0.04139878345526179</v>
+        <v>-0.06015118981383858</v>
       </c>
       <c r="D33">
-        <v>0.1180941506187721</v>
+        <v>-0.11680565386643</v>
       </c>
       <c r="E33">
-        <v>0.03876829194168607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03153821919623728</v>
+      </c>
+      <c r="F33">
+        <v>-0.02528388081299218</v>
+      </c>
+      <c r="G33">
+        <v>0.02730481685019174</v>
+      </c>
+      <c r="H33">
+        <v>0.05414223781431492</v>
+      </c>
+      <c r="I33">
+        <v>-0.0154814438349316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02113324949681745</v>
+        <v>0.007968176035643317</v>
       </c>
       <c r="C34">
-        <v>0.05917879358540007</v>
+        <v>-0.06215411346144761</v>
       </c>
       <c r="D34">
-        <v>0.05034201310216096</v>
+        <v>-0.0255786802010284</v>
       </c>
       <c r="E34">
-        <v>-0.04367446226585298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02818638629620934</v>
+      </c>
+      <c r="F34">
+        <v>0.04160352643161923</v>
+      </c>
+      <c r="G34">
+        <v>0.03462717726816904</v>
+      </c>
+      <c r="H34">
+        <v>0.03255379765538263</v>
+      </c>
+      <c r="I34">
+        <v>-0.01167298707009755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003034483475768459</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.01229049794673539</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03290135918772468</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.006664248756945219</v>
+      </c>
+      <c r="F35">
+        <v>-0.01471067143758583</v>
+      </c>
+      <c r="G35">
+        <v>0.03818284704729435</v>
+      </c>
+      <c r="H35">
+        <v>0.05654915119713725</v>
+      </c>
+      <c r="I35">
+        <v>-0.01356750290349921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.005449240288022615</v>
+        <v>0.01131910221606523</v>
       </c>
       <c r="C36">
-        <v>0.007911881021235724</v>
+        <v>-0.02314856126599074</v>
       </c>
       <c r="D36">
-        <v>0.07341009884159359</v>
+        <v>-0.07211245508328613</v>
       </c>
       <c r="E36">
-        <v>0.04641198036534016</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03179113091896147</v>
+      </c>
+      <c r="F36">
+        <v>-0.04559551641133004</v>
+      </c>
+      <c r="G36">
+        <v>0.02882356430308792</v>
+      </c>
+      <c r="H36">
+        <v>0.06409499064890037</v>
+      </c>
+      <c r="I36">
+        <v>-0.0132866765545218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005850811830694509</v>
+        <v>0.01037666986793408</v>
       </c>
       <c r="C38">
-        <v>0.00757536106860831</v>
+        <v>-0.02608646295380001</v>
       </c>
       <c r="D38">
-        <v>0.07542833795527132</v>
+        <v>-0.0833287734864557</v>
       </c>
       <c r="E38">
-        <v>0.002206363631103238</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00902092800118851</v>
+      </c>
+      <c r="F38">
+        <v>0.001362141156438983</v>
+      </c>
+      <c r="G38">
+        <v>0.001185497005491973</v>
+      </c>
+      <c r="H38">
+        <v>0.07088899916932681</v>
+      </c>
+      <c r="I38">
+        <v>-0.04732412347909213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0159850506826725</v>
+        <v>0.004422138104499766</v>
       </c>
       <c r="C39">
-        <v>0.05981266721847505</v>
+        <v>-0.07978097772796527</v>
       </c>
       <c r="D39">
-        <v>0.09886719041216652</v>
+        <v>-0.08521777466758587</v>
       </c>
       <c r="E39">
-        <v>-0.007075246075566991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.05273792036597708</v>
+      </c>
+      <c r="F39">
+        <v>0.01288239057251103</v>
+      </c>
+      <c r="G39">
+        <v>0.06615957734740296</v>
+      </c>
+      <c r="H39">
+        <v>0.0796465500514892</v>
+      </c>
+      <c r="I39">
+        <v>-0.03696058735251566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01790229939631734</v>
+        <v>0.01295847312294017</v>
       </c>
       <c r="C40">
-        <v>0.02201751769340283</v>
+        <v>-0.04039384325283614</v>
       </c>
       <c r="D40">
-        <v>0.104138523907814</v>
+        <v>-0.09022054667513445</v>
       </c>
       <c r="E40">
-        <v>-0.01422184397761177</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0442519268209188</v>
+      </c>
+      <c r="F40">
+        <v>0.02731704010436387</v>
+      </c>
+      <c r="G40">
+        <v>-0.008904373137625196</v>
+      </c>
+      <c r="H40">
+        <v>0.1150305937190814</v>
+      </c>
+      <c r="I40">
+        <v>0.02771967536449421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.00929002255394327</v>
+        <v>0.01505893089830438</v>
       </c>
       <c r="C41">
-        <v>0.004794083565058505</v>
+        <v>-0.02012609934720834</v>
       </c>
       <c r="D41">
-        <v>0.03437757521316071</v>
+        <v>-0.04186056089967039</v>
       </c>
       <c r="E41">
-        <v>0.02202726363631583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.005446733031914837</v>
+      </c>
+      <c r="F41">
+        <v>-0.02227652792771438</v>
+      </c>
+      <c r="G41">
+        <v>0.01513708123504077</v>
+      </c>
+      <c r="H41">
+        <v>0.04441481232175627</v>
+      </c>
+      <c r="I41">
+        <v>-0.01405017849603578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.000261045480363433</v>
+        <v>0.007426563954673321</v>
       </c>
       <c r="C43">
-        <v>0.004302792411681126</v>
+        <v>-0.01638664939741533</v>
       </c>
       <c r="D43">
-        <v>0.05106751557686447</v>
+        <v>-0.05180212675772593</v>
       </c>
       <c r="E43">
-        <v>0.0177438524133188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01095989501768842</v>
+      </c>
+      <c r="F43">
+        <v>-0.02049208230442508</v>
+      </c>
+      <c r="G43">
+        <v>0.02155902940958976</v>
+      </c>
+      <c r="H43">
+        <v>0.05614349845949933</v>
+      </c>
+      <c r="I43">
+        <v>-0.03285926218512623</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02065425979593662</v>
+        <v>0.01189392071623932</v>
       </c>
       <c r="C44">
-        <v>0.02329210330369014</v>
+        <v>-0.04801287371036746</v>
       </c>
       <c r="D44">
-        <v>0.08444238027861037</v>
+        <v>-0.09706905228471206</v>
       </c>
       <c r="E44">
-        <v>0.04596101145902576</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03854917079321149</v>
+      </c>
+      <c r="F44">
+        <v>-0.03052853192702447</v>
+      </c>
+      <c r="G44">
+        <v>-0.0004040325428700677</v>
+      </c>
+      <c r="H44">
+        <v>0.07098702808819116</v>
+      </c>
+      <c r="I44">
+        <v>-0.02999735208003312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006146618561288899</v>
+        <v>-0.001025022242735888</v>
       </c>
       <c r="C46">
-        <v>0.03108773065098584</v>
+        <v>-0.04365216148673785</v>
       </c>
       <c r="D46">
-        <v>0.07337729712937389</v>
+        <v>-0.06932502037268616</v>
       </c>
       <c r="E46">
-        <v>0.01734946710368203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04541429948286477</v>
+      </c>
+      <c r="F46">
+        <v>-0.0248670338438154</v>
+      </c>
+      <c r="G46">
+        <v>0.05278390834822447</v>
+      </c>
+      <c r="H46">
+        <v>0.1236081003020737</v>
+      </c>
+      <c r="I46">
+        <v>-0.03309406121740954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07711590984182121</v>
+        <v>0.03098394142220971</v>
       </c>
       <c r="C47">
-        <v>0.1073214593496912</v>
+        <v>-0.1285493264829648</v>
       </c>
       <c r="D47">
-        <v>0.04706457045392754</v>
+        <v>-0.02216665516866555</v>
       </c>
       <c r="E47">
-        <v>0.01228782496774979</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009120226638434491</v>
+      </c>
+      <c r="F47">
+        <v>0.004666439198624677</v>
+      </c>
+      <c r="G47">
+        <v>0.05589968411086728</v>
+      </c>
+      <c r="H47">
+        <v>0.02199215757343307</v>
+      </c>
+      <c r="I47">
+        <v>-0.02602511491644709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008529573691127928</v>
+        <v>0.01467129547088866</v>
       </c>
       <c r="C48">
-        <v>0.01816419702806721</v>
+        <v>-0.03444982784225383</v>
       </c>
       <c r="D48">
-        <v>0.0676974477712033</v>
+        <v>-0.07437616920399663</v>
       </c>
       <c r="E48">
-        <v>0.04538508717164708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0223306342657971</v>
+      </c>
+      <c r="F48">
+        <v>-0.05126036007319612</v>
+      </c>
+      <c r="G48">
+        <v>0.04425810213145277</v>
+      </c>
+      <c r="H48">
+        <v>0.1033740597537904</v>
+      </c>
+      <c r="I48">
+        <v>-0.0338625107791003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03276182873638118</v>
+        <v>0.01229688358123318</v>
       </c>
       <c r="C50">
-        <v>0.058224533972133</v>
+        <v>-0.07686705452801541</v>
       </c>
       <c r="D50">
-        <v>0.05578909308797946</v>
+        <v>-0.04824877523926852</v>
       </c>
       <c r="E50">
-        <v>0.00513972890975339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01534823354010089</v>
+      </c>
+      <c r="F50">
+        <v>-0.006700759568171572</v>
+      </c>
+      <c r="G50">
+        <v>0.005140992157405547</v>
+      </c>
+      <c r="H50">
+        <v>0.02869616126583706</v>
+      </c>
+      <c r="I50">
+        <v>-0.02420540214969254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0004954109326334967</v>
+        <v>-0.001334892506420749</v>
       </c>
       <c r="C51">
-        <v>0.005249423999203888</v>
+        <v>-0.01652031922691361</v>
       </c>
       <c r="D51">
-        <v>0.05546692560050385</v>
+        <v>-0.05490018556761906</v>
       </c>
       <c r="E51">
-        <v>0.01989285576624226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03902842881730188</v>
+      </c>
+      <c r="F51">
+        <v>-0.03486944906915104</v>
+      </c>
+      <c r="G51">
+        <v>0.008234485745352972</v>
+      </c>
+      <c r="H51">
+        <v>0.07083855290649289</v>
+      </c>
+      <c r="I51">
+        <v>0.004012620121720036</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1082402365416608</v>
+        <v>0.05335702730155928</v>
       </c>
       <c r="C53">
-        <v>0.1252499486785464</v>
+        <v>-0.1592280716393593</v>
       </c>
       <c r="D53">
-        <v>-0.005255221248708244</v>
+        <v>0.02013121587085228</v>
       </c>
       <c r="E53">
-        <v>0.04196863431715447</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02544369374615621</v>
+      </c>
+      <c r="F53">
+        <v>-0.04578428164698653</v>
+      </c>
+      <c r="G53">
+        <v>0.009405608362783726</v>
+      </c>
+      <c r="H53">
+        <v>0.01085885615713293</v>
+      </c>
+      <c r="I53">
+        <v>-0.01313530102922456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01000808282146636</v>
+        <v>0.01041897150562173</v>
       </c>
       <c r="C54">
-        <v>0.0226090293423641</v>
+        <v>-0.03942060352039203</v>
       </c>
       <c r="D54">
-        <v>0.08420128559829269</v>
+        <v>-0.07752412745508429</v>
       </c>
       <c r="E54">
-        <v>0.004958613618372657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02120518664280156</v>
+      </c>
+      <c r="F54">
+        <v>-0.0005327219658479251</v>
+      </c>
+      <c r="G54">
+        <v>0.02237938285454441</v>
+      </c>
+      <c r="H54">
+        <v>0.07867091147948282</v>
+      </c>
+      <c r="I54">
+        <v>-0.04208396135653502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09324828070951471</v>
+        <v>0.04027427274181249</v>
       </c>
       <c r="C55">
-        <v>0.1074084772432437</v>
+        <v>-0.1310277656921826</v>
       </c>
       <c r="D55">
-        <v>0.005398032831552595</v>
+        <v>0.03454431161841293</v>
       </c>
       <c r="E55">
-        <v>0.00197898292706393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00902589065612003</v>
+      </c>
+      <c r="F55">
+        <v>-0.006982970273804327</v>
+      </c>
+      <c r="G55">
+        <v>0.002878485888768598</v>
+      </c>
+      <c r="H55">
+        <v>0.00395853559391441</v>
+      </c>
+      <c r="I55">
+        <v>0.008418190996058408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1336387734976776</v>
+        <v>0.05478415992817828</v>
       </c>
       <c r="C56">
-        <v>0.146389903564087</v>
+        <v>-0.191039862503974</v>
       </c>
       <c r="D56">
-        <v>0.005809117931691251</v>
+        <v>0.03642239956160177</v>
       </c>
       <c r="E56">
-        <v>-0.008283058567804126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0246789761143417</v>
+      </c>
+      <c r="F56">
+        <v>-0.007834668300196653</v>
+      </c>
+      <c r="G56">
+        <v>-0.03363022133787912</v>
+      </c>
+      <c r="H56">
+        <v>0.03007956883088285</v>
+      </c>
+      <c r="I56">
+        <v>0.003626775062673432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.009772203572538178</v>
+        <v>0.002773428127103718</v>
       </c>
       <c r="C58">
-        <v>0.01326715732630867</v>
+        <v>-0.05932445528006038</v>
       </c>
       <c r="D58">
-        <v>0.2227474072793819</v>
+        <v>-0.2860348680589839</v>
       </c>
       <c r="E58">
-        <v>0.109865182214075</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02899099331036677</v>
+      </c>
+      <c r="F58">
+        <v>-0.117236893676524</v>
+      </c>
+      <c r="G58">
+        <v>-0.1675070028180639</v>
+      </c>
+      <c r="H58">
+        <v>0.0009794741309229538</v>
+      </c>
+      <c r="I58">
+        <v>-0.03970760206936917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1821566385655886</v>
+        <v>0.2537353183118828</v>
       </c>
       <c r="C59">
-        <v>-0.1430978500151981</v>
+        <v>0.05826071073475728</v>
       </c>
       <c r="D59">
-        <v>0.04240196657418842</v>
+        <v>-0.05261196123489999</v>
       </c>
       <c r="E59">
-        <v>0.02664963043405563</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0233547912363199</v>
+      </c>
+      <c r="F59">
+        <v>-0.02337801006938567</v>
+      </c>
+      <c r="G59">
+        <v>-0.01059870626405485</v>
+      </c>
+      <c r="H59">
+        <v>0.01232842611298773</v>
+      </c>
+      <c r="I59">
+        <v>0.03368081648717841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1810706424380509</v>
+        <v>0.1488662064933418</v>
       </c>
       <c r="C60">
-        <v>0.09906601009733626</v>
+        <v>-0.1701054160111563</v>
       </c>
       <c r="D60">
-        <v>0.2312039745254381</v>
+        <v>-0.09629959200222049</v>
       </c>
       <c r="E60">
-        <v>-0.05439021568510766</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1472476636678819</v>
+      </c>
+      <c r="F60">
+        <v>0.1892206061108655</v>
+      </c>
+      <c r="G60">
+        <v>0.1140885184058159</v>
+      </c>
+      <c r="H60">
+        <v>-0.3153959393213682</v>
+      </c>
+      <c r="I60">
+        <v>0.1342132376263758</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02440463719336266</v>
+        <v>0.01077248356865119</v>
       </c>
       <c r="C61">
-        <v>0.05448689798708001</v>
+        <v>-0.07583584079320364</v>
       </c>
       <c r="D61">
-        <v>0.08199701951466352</v>
+        <v>-0.06979112241756613</v>
       </c>
       <c r="E61">
-        <v>-0.007241554391161743</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03829732223185117</v>
+      </c>
+      <c r="F61">
+        <v>0.0180145815365484</v>
+      </c>
+      <c r="G61">
+        <v>0.0690139777846533</v>
+      </c>
+      <c r="H61">
+        <v>0.0595457715425573</v>
+      </c>
+      <c r="I61">
+        <v>-0.02456214112712564</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.006992255474850952</v>
+        <v>0.009058178468674008</v>
       </c>
       <c r="C63">
-        <v>0.02433233777434674</v>
+        <v>-0.03841187947947465</v>
       </c>
       <c r="D63">
-        <v>0.0902018186478674</v>
+        <v>-0.0669428363723487</v>
       </c>
       <c r="E63">
-        <v>0.02696142147145488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05967957155951938</v>
+      </c>
+      <c r="F63">
+        <v>-0.02268345014699132</v>
+      </c>
+      <c r="G63">
+        <v>0.03743651095885445</v>
+      </c>
+      <c r="H63">
+        <v>0.06499009632048129</v>
+      </c>
+      <c r="I63">
+        <v>-0.02648907315240957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05730255546740604</v>
+        <v>0.01562743045119615</v>
       </c>
       <c r="C64">
-        <v>0.08684637789622639</v>
+        <v>-0.1035251881501321</v>
       </c>
       <c r="D64">
-        <v>0.01242952331826284</v>
+        <v>-0.007421391696091788</v>
       </c>
       <c r="E64">
-        <v>0.01735129147761241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02165147870729988</v>
+      </c>
+      <c r="F64">
+        <v>-0.01407584703327747</v>
+      </c>
+      <c r="G64">
+        <v>0.04358908256032881</v>
+      </c>
+      <c r="H64">
+        <v>0.03092436348661503</v>
+      </c>
+      <c r="I64">
+        <v>-0.04784262035032376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0240019239972111</v>
+        <v>0.02088264093370012</v>
       </c>
       <c r="C65">
-        <v>0.01644076808258956</v>
+        <v>-0.04464011731500955</v>
       </c>
       <c r="D65">
-        <v>0.1093132606152244</v>
+        <v>-0.1127837490217164</v>
       </c>
       <c r="E65">
-        <v>0.02055442693373251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04946444401963183</v>
+      </c>
+      <c r="F65">
+        <v>0.00582065041470824</v>
+      </c>
+      <c r="G65">
+        <v>0.03594291553215144</v>
+      </c>
+      <c r="H65">
+        <v>-0.01507183211794733</v>
+      </c>
+      <c r="I65">
+        <v>-0.0376148363554597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02137642681193247</v>
+        <v>0.001262960133167149</v>
       </c>
       <c r="C66">
-        <v>0.06991753683322513</v>
+        <v>-0.09899829262657327</v>
       </c>
       <c r="D66">
-        <v>0.1200900481881151</v>
+        <v>-0.1140464556425109</v>
       </c>
       <c r="E66">
-        <v>-0.006649909564365158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04612089735355015</v>
+      </c>
+      <c r="F66">
+        <v>0.01428562620823863</v>
+      </c>
+      <c r="G66">
+        <v>0.03267037345119452</v>
+      </c>
+      <c r="H66">
+        <v>0.06615823782903615</v>
+      </c>
+      <c r="I66">
+        <v>-0.03370412497000359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02378949434808103</v>
+        <v>0.02016568212142353</v>
       </c>
       <c r="C67">
-        <v>0.02060311488128855</v>
+        <v>-0.03680703769239732</v>
       </c>
       <c r="D67">
-        <v>0.03849354233201344</v>
+        <v>-0.03986312105256545</v>
       </c>
       <c r="E67">
-        <v>-0.02576997527636535</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01320669781805287</v>
+      </c>
+      <c r="F67">
+        <v>0.03037405280571695</v>
+      </c>
+      <c r="G67">
+        <v>0.01644233768352988</v>
+      </c>
+      <c r="H67">
+        <v>0.05902678424905849</v>
+      </c>
+      <c r="I67">
+        <v>-0.03906905922039702</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2049251151335281</v>
+        <v>0.2771729453998512</v>
       </c>
       <c r="C68">
-        <v>-0.1534758617748032</v>
+        <v>0.06345358362067255</v>
       </c>
       <c r="D68">
-        <v>0.03310503092070751</v>
+        <v>-0.02882251301224938</v>
       </c>
       <c r="E68">
-        <v>0.02102607018892139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.002084332988672213</v>
+      </c>
+      <c r="F68">
+        <v>-0.02432379316188854</v>
+      </c>
+      <c r="G68">
+        <v>-0.07787013169616171</v>
+      </c>
+      <c r="H68">
+        <v>-0.01393583977508939</v>
+      </c>
+      <c r="I68">
+        <v>0.01105547644175742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05326445001201954</v>
+        <v>0.01492998211612865</v>
       </c>
       <c r="C69">
-        <v>0.1174004704580636</v>
+        <v>-0.1177628116950256</v>
       </c>
       <c r="D69">
-        <v>0.07357065931117078</v>
+        <v>-0.02824740668776639</v>
       </c>
       <c r="E69">
-        <v>0.00920819906458809</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.0118661691867683</v>
+      </c>
+      <c r="F69">
+        <v>0.01086965210186132</v>
+      </c>
+      <c r="G69">
+        <v>0.03816136425644642</v>
+      </c>
+      <c r="H69">
+        <v>0.01977214091959852</v>
+      </c>
+      <c r="I69">
+        <v>-0.01038149605408303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2136987212321137</v>
+        <v>0.2764034530620795</v>
       </c>
       <c r="C71">
-        <v>-0.1772830928378925</v>
+        <v>0.07868711504258065</v>
       </c>
       <c r="D71">
-        <v>0.020058825714293</v>
+        <v>-0.01672420090524317</v>
       </c>
       <c r="E71">
-        <v>0.01033803925740178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0008384586609699522</v>
+      </c>
+      <c r="F71">
+        <v>-0.01507811233262409</v>
+      </c>
+      <c r="G71">
+        <v>-0.0298967646666182</v>
+      </c>
+      <c r="H71">
+        <v>0.01181125033127167</v>
+      </c>
+      <c r="I71">
+        <v>-0.006037766742590241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1020729210875251</v>
+        <v>0.05644006862031754</v>
       </c>
       <c r="C72">
-        <v>0.0754045858877577</v>
+        <v>-0.1272620858771475</v>
       </c>
       <c r="D72">
-        <v>0.1218674491295755</v>
+        <v>-0.06191482100397814</v>
       </c>
       <c r="E72">
-        <v>-0.006458804628895712</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07118144878715454</v>
+      </c>
+      <c r="F72">
+        <v>0.02815710876114685</v>
+      </c>
+      <c r="G72">
+        <v>0.06218683151841446</v>
+      </c>
+      <c r="H72">
+        <v>0.02080803912328994</v>
+      </c>
+      <c r="I72">
+        <v>-0.02966008347581403</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1694246427740505</v>
+        <v>0.1407132576848674</v>
       </c>
       <c r="C73">
-        <v>0.06742169446986354</v>
+        <v>-0.1496389180078674</v>
       </c>
       <c r="D73">
-        <v>0.2804788214676921</v>
+        <v>-0.1035279243754631</v>
       </c>
       <c r="E73">
-        <v>-0.1027786777803559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.2632560593674538</v>
+      </c>
+      <c r="F73">
+        <v>0.2729409610066282</v>
+      </c>
+      <c r="G73">
+        <v>0.2853162470808282</v>
+      </c>
+      <c r="H73">
+        <v>-0.3553579192082523</v>
+      </c>
+      <c r="I73">
+        <v>0.0701304027512243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1061665187774624</v>
+        <v>0.04958474544831217</v>
       </c>
       <c r="C74">
-        <v>0.1154105399159976</v>
+        <v>-0.1440136898975582</v>
       </c>
       <c r="D74">
-        <v>-0.02644163987247804</v>
+        <v>0.04597259139226668</v>
       </c>
       <c r="E74">
-        <v>0.03363669611727379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.009038447691466601</v>
+      </c>
+      <c r="F74">
+        <v>-0.03382752751611617</v>
+      </c>
+      <c r="G74">
+        <v>-0.002446106097693352</v>
+      </c>
+      <c r="H74">
+        <v>-0.02185990487531096</v>
+      </c>
+      <c r="I74">
+        <v>0.007717428812462603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2301407958802198</v>
+        <v>0.09927591424221553</v>
       </c>
       <c r="C75">
-        <v>0.2005340349259848</v>
+        <v>-0.268862050049182</v>
       </c>
       <c r="D75">
-        <v>-0.09522822595441749</v>
+        <v>0.1326967979840116</v>
       </c>
       <c r="E75">
-        <v>-0.06834034131608613</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09034814801556429</v>
+      </c>
+      <c r="F75">
+        <v>0.03889570651915787</v>
+      </c>
+      <c r="G75">
+        <v>-0.08361755737495613</v>
+      </c>
+      <c r="H75">
+        <v>0.06050272416987752</v>
+      </c>
+      <c r="I75">
+        <v>-0.05847909362069753</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1365866680989732</v>
+        <v>0.05619205522525825</v>
       </c>
       <c r="C76">
-        <v>0.1386591385645717</v>
+        <v>-0.1801287413019088</v>
       </c>
       <c r="D76">
-        <v>-0.002422689390696443</v>
+        <v>0.05002985400029346</v>
       </c>
       <c r="E76">
-        <v>-0.01322535263485443</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.01864640061989238</v>
+      </c>
+      <c r="F76">
+        <v>0.001143132317580097</v>
+      </c>
+      <c r="G76">
+        <v>-0.0221788368112938</v>
+      </c>
+      <c r="H76">
+        <v>0.04651510225530932</v>
+      </c>
+      <c r="I76">
+        <v>-0.01594950938819118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01853787823741724</v>
+        <v>-0.0004506603063010626</v>
       </c>
       <c r="C77">
-        <v>0.07033621443104256</v>
+        <v>-0.1101151240511889</v>
       </c>
       <c r="D77">
-        <v>-0.02793493359751817</v>
+        <v>-0.3264356044796798</v>
       </c>
       <c r="E77">
-        <v>-0.002709084477335849</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8530431854221611</v>
+      </c>
+      <c r="F77">
+        <v>0.1775664155608475</v>
+      </c>
+      <c r="G77">
+        <v>0.1119973233402888</v>
+      </c>
+      <c r="H77">
+        <v>-0.2072033887454618</v>
+      </c>
+      <c r="I77">
+        <v>-0.006993410261475852</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02854165461831795</v>
+        <v>0.01705803876351033</v>
       </c>
       <c r="C78">
-        <v>0.07225910740377824</v>
+        <v>-0.09285959299679794</v>
       </c>
       <c r="D78">
-        <v>0.148301669078024</v>
+        <v>-0.1124362527848651</v>
       </c>
       <c r="E78">
-        <v>0.05233044035094757</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06657332253956415</v>
+      </c>
+      <c r="F78">
+        <v>-0.03960254921878949</v>
+      </c>
+      <c r="G78">
+        <v>-0.01657859103119651</v>
+      </c>
+      <c r="H78">
+        <v>0.05177748772168107</v>
+      </c>
+      <c r="I78">
+        <v>0.03917935903338357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1004599069068783</v>
+        <v>0.0363501940003409</v>
       </c>
       <c r="C79">
-        <v>0.1866261928735413</v>
+        <v>-0.1996328589154381</v>
       </c>
       <c r="D79">
-        <v>-0.2304182445893523</v>
+        <v>0.09184284648171136</v>
       </c>
       <c r="E79">
-        <v>0.8787459625061174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05688941956527338</v>
+      </c>
+      <c r="F79">
+        <v>-0.8210197998403107</v>
+      </c>
+      <c r="G79">
+        <v>0.184207877714423</v>
+      </c>
+      <c r="H79">
+        <v>-0.3694666398950809</v>
+      </c>
+      <c r="I79">
+        <v>0.0115475882494745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003491445929233838</v>
+        <v>0.005067153791145148</v>
       </c>
       <c r="C80">
-        <v>0.04474578683614472</v>
+        <v>-0.04432967014258104</v>
       </c>
       <c r="D80">
-        <v>0.05278518655930289</v>
+        <v>-0.04045856168199929</v>
       </c>
       <c r="E80">
-        <v>0.001710279063904113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04782478323990438</v>
+      </c>
+      <c r="F80">
+        <v>0.003097555941488588</v>
+      </c>
+      <c r="G80">
+        <v>0.01995552942496902</v>
+      </c>
+      <c r="H80">
+        <v>0.02995670826672922</v>
+      </c>
+      <c r="I80">
+        <v>0.08759247550733164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1175741523864243</v>
+        <v>0.0408330260198335</v>
       </c>
       <c r="C81">
-        <v>0.1365392071616185</v>
+        <v>-0.1667235543031994</v>
       </c>
       <c r="D81">
-        <v>-0.08430457707529357</v>
+        <v>0.08289397173900881</v>
       </c>
       <c r="E81">
-        <v>0.01819757024650465</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04491360461086642</v>
+      </c>
+      <c r="F81">
+        <v>-0.05450623117392316</v>
+      </c>
+      <c r="G81">
+        <v>-0.02786276960985791</v>
+      </c>
+      <c r="H81">
+        <v>0.0860207568900581</v>
+      </c>
+      <c r="I81">
+        <v>0.006686753746923616</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2475431377561978</v>
+        <v>0.08637946384916161</v>
       </c>
       <c r="C82">
-        <v>0.2949352299398598</v>
+        <v>-0.3152818778140032</v>
       </c>
       <c r="D82">
-        <v>-0.1870677061382146</v>
+        <v>0.2425228105964911</v>
       </c>
       <c r="E82">
-        <v>-0.1995832809717434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06186256529549882</v>
+      </c>
+      <c r="F82">
+        <v>0.1259999221361921</v>
+      </c>
+      <c r="G82">
+        <v>-0.04541940713631502</v>
+      </c>
+      <c r="H82">
+        <v>0.1364199775318407</v>
+      </c>
+      <c r="I82">
+        <v>0.005604942970492245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01062261754652249</v>
+        <v>-0.01258034739948286</v>
       </c>
       <c r="C83">
-        <v>0.05256064107895805</v>
+        <v>-0.02147607787045601</v>
       </c>
       <c r="D83">
-        <v>0.00305441797929341</v>
+        <v>-0.02478668221369395</v>
       </c>
       <c r="E83">
-        <v>0.0292526804217763</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08626865789221214</v>
+      </c>
+      <c r="F83">
+        <v>-0.06489886048122034</v>
+      </c>
+      <c r="G83">
+        <v>0.02299307161163375</v>
+      </c>
+      <c r="H83">
+        <v>0.1940200693438729</v>
+      </c>
+      <c r="I83">
+        <v>0.9133735196118056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.000244253958329989</v>
+        <v>-0.004130746141077724</v>
       </c>
       <c r="C84">
-        <v>-0.001806195474105581</v>
+        <v>-0.01717186147189702</v>
       </c>
       <c r="D84">
-        <v>0.0006812850652851126</v>
+        <v>-0.04149641612573934</v>
       </c>
       <c r="E84">
-        <v>-0.002045147007990984</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0008919215480539461</v>
+      </c>
+      <c r="F84">
+        <v>-0.02600408404071749</v>
+      </c>
+      <c r="G84">
+        <v>-0.03264820266641993</v>
+      </c>
+      <c r="H84">
+        <v>0.05755048179175393</v>
+      </c>
+      <c r="I84">
+        <v>-0.05839264013556236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1409491170784786</v>
+        <v>0.05517658599883513</v>
       </c>
       <c r="C85">
-        <v>0.1416632909095858</v>
+        <v>-0.1826616170387381</v>
       </c>
       <c r="D85">
-        <v>-0.05577435465240053</v>
+        <v>0.1023673396807704</v>
       </c>
       <c r="E85">
-        <v>0.0375316425682245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001364490812821507</v>
+      </c>
+      <c r="F85">
+        <v>-0.06590532889642034</v>
+      </c>
+      <c r="G85">
+        <v>-0.02644533466250004</v>
+      </c>
+      <c r="H85">
+        <v>-0.0006127934717155786</v>
+      </c>
+      <c r="I85">
+        <v>-0.009030554324852799</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01701511366401706</v>
+        <v>0.01413014684088039</v>
       </c>
       <c r="C86">
-        <v>0.01084192500732548</v>
+        <v>-0.03964575748093119</v>
       </c>
       <c r="D86">
-        <v>0.09111850581226143</v>
+        <v>-0.1108516599138177</v>
       </c>
       <c r="E86">
-        <v>0.01928128526225331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02114917231409656</v>
+      </c>
+      <c r="F86">
+        <v>-0.01443231474205997</v>
+      </c>
+      <c r="G86">
+        <v>0.01647333994511871</v>
+      </c>
+      <c r="H86">
+        <v>-0.01366988718661481</v>
+      </c>
+      <c r="I86">
+        <v>-0.02836154425470083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02101059744323733</v>
+        <v>0.01050653296587952</v>
       </c>
       <c r="C87">
-        <v>0.02830545336189058</v>
+        <v>-0.06230110627075654</v>
       </c>
       <c r="D87">
-        <v>0.121220668588216</v>
+        <v>-0.1338683142137933</v>
       </c>
       <c r="E87">
-        <v>0.04587682655060569</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0139602748606688</v>
+      </c>
+      <c r="F87">
+        <v>-0.03725491014249663</v>
+      </c>
+      <c r="G87">
+        <v>-0.02513093687213181</v>
+      </c>
+      <c r="H87">
+        <v>0.08825479541347317</v>
+      </c>
+      <c r="I87">
+        <v>0.005306925827169242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05111198642171137</v>
+        <v>0.03250966738554745</v>
       </c>
       <c r="C88">
-        <v>0.04383198119027652</v>
+        <v>-0.06921033243159223</v>
       </c>
       <c r="D88">
-        <v>0.0191328361573837</v>
+        <v>-0.01924569648195103</v>
       </c>
       <c r="E88">
-        <v>0.02830901611114753</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02556059249099924</v>
+      </c>
+      <c r="F88">
+        <v>-0.02115492489068798</v>
+      </c>
+      <c r="G88">
+        <v>0.02075109789001886</v>
+      </c>
+      <c r="H88">
+        <v>0.007880539680474896</v>
+      </c>
+      <c r="I88">
+        <v>-0.02514067803948439</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3218815440990865</v>
+        <v>0.4076597666729816</v>
       </c>
       <c r="C89">
-        <v>-0.3218657273128809</v>
+        <v>0.1516275565572697</v>
       </c>
       <c r="D89">
-        <v>0.008092156617106633</v>
+        <v>-0.03424954019783511</v>
       </c>
       <c r="E89">
-        <v>0.07894228641162127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04821478744460311</v>
+      </c>
+      <c r="F89">
+        <v>-0.05310387312182444</v>
+      </c>
+      <c r="G89">
+        <v>0.03611031679677545</v>
+      </c>
+      <c r="H89">
+        <v>0.148361494962288</v>
+      </c>
+      <c r="I89">
+        <v>0.06781062424563909</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2585878112684808</v>
+        <v>0.3209160712858506</v>
       </c>
       <c r="C90">
-        <v>-0.2383985802428771</v>
+        <v>0.1032928567628258</v>
       </c>
       <c r="D90">
-        <v>0.05406631978682681</v>
+        <v>-0.03368587636606968</v>
       </c>
       <c r="E90">
-        <v>-0.009546190246055649</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007984630080072809</v>
+      </c>
+      <c r="F90">
+        <v>0.008618915515246559</v>
+      </c>
+      <c r="G90">
+        <v>-0.06141845608224945</v>
+      </c>
+      <c r="H90">
+        <v>0.03034264066444707</v>
+      </c>
+      <c r="I90">
+        <v>0.01910351668579</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1533414567726537</v>
+        <v>0.06546438532077148</v>
       </c>
       <c r="C91">
-        <v>0.1873747027558057</v>
+        <v>-0.206718726294619</v>
       </c>
       <c r="D91">
-        <v>-0.1023314186991991</v>
+        <v>0.1106793809883219</v>
       </c>
       <c r="E91">
-        <v>0.05516607352809415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.05790378731419207</v>
+      </c>
+      <c r="F91">
+        <v>-0.06164707706359151</v>
+      </c>
+      <c r="G91">
+        <v>-0.009844750326512176</v>
+      </c>
+      <c r="H91">
+        <v>-0.004511957695422653</v>
+      </c>
+      <c r="I91">
+        <v>0.02935897703274626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2435051775682519</v>
+        <v>0.3404781546258389</v>
       </c>
       <c r="C92">
-        <v>-0.2619231368479638</v>
+        <v>0.1377432319031223</v>
       </c>
       <c r="D92">
-        <v>-0.06434900806504705</v>
+        <v>-0.008444708413699206</v>
       </c>
       <c r="E92">
-        <v>0.01686909801283251</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06976742838620821</v>
+      </c>
+      <c r="F92">
+        <v>-0.03698497268758705</v>
+      </c>
+      <c r="G92">
+        <v>-0.02369196116073656</v>
+      </c>
+      <c r="H92">
+        <v>0.03481542380270792</v>
+      </c>
+      <c r="I92">
+        <v>-0.1343137974247047</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2843382546301708</v>
+        <v>0.3357477785416559</v>
       </c>
       <c r="C93">
-        <v>-0.2464872908552513</v>
+        <v>0.1090101976993279</v>
       </c>
       <c r="D93">
-        <v>0.00645223262226913</v>
+        <v>0.01876254795934285</v>
       </c>
       <c r="E93">
-        <v>0.01449903963341364</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02255272028105754</v>
+      </c>
+      <c r="F93">
+        <v>-0.009726991046358534</v>
+      </c>
+      <c r="G93">
+        <v>0.004343146517331037</v>
+      </c>
+      <c r="H93">
+        <v>-0.03289340458748809</v>
+      </c>
+      <c r="I93">
+        <v>-0.03318855268126896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2904833883758935</v>
+        <v>0.1224534215721411</v>
       </c>
       <c r="C94">
-        <v>0.2717198909364071</v>
+        <v>-0.3454944753048635</v>
       </c>
       <c r="D94">
-        <v>-0.2847174317940044</v>
+        <v>0.3641881916794459</v>
       </c>
       <c r="E94">
-        <v>-0.2487616084124999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.05591883879070902</v>
+      </c>
+      <c r="F94">
+        <v>0.1320189582721649</v>
+      </c>
+      <c r="G94">
+        <v>-0.2974598976676303</v>
+      </c>
+      <c r="H94">
+        <v>0.1075643890071058</v>
+      </c>
+      <c r="I94">
+        <v>-0.02023688131479177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01267047108969198</v>
+        <v>0.01342959606838076</v>
       </c>
       <c r="C95">
-        <v>0.04316793102106432</v>
+        <v>-0.06696854800536657</v>
       </c>
       <c r="D95">
-        <v>-0.03068191617205285</v>
+        <v>-0.08666551307234013</v>
       </c>
       <c r="E95">
-        <v>-0.02210324681352507</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1537695594680958</v>
+      </c>
+      <c r="F95">
+        <v>0.04100015243573825</v>
+      </c>
+      <c r="G95">
+        <v>0.2123012641145605</v>
+      </c>
+      <c r="H95">
+        <v>0.2376564057360814</v>
+      </c>
+      <c r="I95">
+        <v>-0.1636984871956648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001693689256255332</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0009837717800924774</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0008782024648239131</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003523343361476531</v>
+      </c>
+      <c r="F97">
+        <v>-0.0004484466335675131</v>
+      </c>
+      <c r="G97">
+        <v>0.0001410451509497863</v>
+      </c>
+      <c r="H97">
+        <v>0.003410488148942453</v>
+      </c>
+      <c r="I97">
+        <v>-0.006120467951571334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1490287019467129</v>
+        <v>0.1229261829065465</v>
       </c>
       <c r="C98">
-        <v>0.08632752207120682</v>
+        <v>-0.1526662001023301</v>
       </c>
       <c r="D98">
-        <v>0.1883436097152669</v>
+        <v>-0.0715327233108515</v>
       </c>
       <c r="E98">
-        <v>-0.09217121226492245</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1828575895007122</v>
+      </c>
+      <c r="F98">
+        <v>0.2182486741617767</v>
+      </c>
+      <c r="G98">
+        <v>0.1944310381088203</v>
+      </c>
+      <c r="H98">
+        <v>-0.2994275362062256</v>
+      </c>
+      <c r="I98">
+        <v>0.1027289694792877</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.00098632773158517</v>
+        <v>0.001652211892802823</v>
       </c>
       <c r="C101">
-        <v>0.02211345057309545</v>
+        <v>-0.03819150848130081</v>
       </c>
       <c r="D101">
-        <v>0.08096219526959772</v>
+        <v>-0.0959648381973819</v>
       </c>
       <c r="E101">
-        <v>0.026987794707269</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.06271215009863768</v>
+      </c>
+      <c r="F101">
+        <v>-0.02379578196884979</v>
+      </c>
+      <c r="G101">
+        <v>0.09195627825906449</v>
+      </c>
+      <c r="H101">
+        <v>0.1499711020049526</v>
+      </c>
+      <c r="I101">
+        <v>-0.006276792432897534</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1040377582855106</v>
+        <v>0.02667190579109699</v>
       </c>
       <c r="C102">
-        <v>0.1579410583458144</v>
+        <v>-0.1459867784092693</v>
       </c>
       <c r="D102">
-        <v>-0.05610285639908204</v>
+        <v>0.101040372640915</v>
       </c>
       <c r="E102">
-        <v>-0.0859661137731975</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03659690480009451</v>
+      </c>
+      <c r="F102">
+        <v>0.07373800543981614</v>
+      </c>
+      <c r="G102">
+        <v>0.02026765696656617</v>
+      </c>
+      <c r="H102">
+        <v>0.02205041139198807</v>
+      </c>
+      <c r="I102">
+        <v>0.01922561893900447</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
